--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329307.8436362816</v>
+        <v>326744.8233003765</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>277.1174825850916</v>
+        <v>179.6140181837498</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>128.8318883870284</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>76.92035246272637</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>72.55303430533274</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>342.857506754139</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>348.7437689906944</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>66.19012763330626</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>48.47495318099494</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>162.1462409286444</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>161.6677254012912</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1342,10 +1342,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>67.38398667663073</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>105.2587327388189</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.3341561773498</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2162996298073</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>65.56423921895224</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.34762173749068</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>56.04917322725558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>184.5018925095688</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>142.1343012721633</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,10 +3958,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>218.9829906665637</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992708</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1474.096401466727</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="C2" t="n">
-        <v>1105.133884526315</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="D2" t="n">
-        <v>746.8681859195644</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="E2" t="n">
-        <v>746.8681859195644</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="F2" t="n">
-        <v>746.8681859195644</v>
+        <v>648.3798380394212</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1634356438533</v>
+        <v>232.6750877637101</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.229622059685</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1474.096401466727</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>2013.57636781303</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>1844.640184885123</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T4" t="n">
-        <v>1558.748794354571</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U4" t="n">
-        <v>1558.748794354571</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V4" t="n">
-        <v>1558.748794354571</v>
+        <v>2307.65484019427</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.331624317611</v>
+        <v>2307.65484019427</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>2234.36894695656</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>2013.57636781303</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.926725050651</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.926725050651</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.6610264439</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>880.872773845656</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>469.8868690560484</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4577,7 +4577,7 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4601,16 +4601,16 @@
         <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320765</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.926725050651</v>
+        <v>1955.989612394222</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.926725050651</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.926725050651</v>
+        <v>1582.523854133142</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380218</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9034178578802</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9672349299733</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8505955176375</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>370.8505955176375</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>223.9606480197272</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>223.9606480197272</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.761631868611</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.34446183165</v>
+        <v>895.7157139915112</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.34446183165</v>
+        <v>895.7157139915112</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.5518826881199</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1768.949738926589</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.987221986178</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>1041.721523379427</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>1041.721523379427</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>630.7356185898198</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>215.0308683141086</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362831</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816094</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872926</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926589</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926589</v>
+        <v>2020.758327462229</v>
       </c>
       <c r="Y8" t="n">
-        <v>1768.949738926589</v>
+        <v>2020.758327462229</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800312</v>
@@ -4884,16 +4884,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>303.9918807365201</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="C10" t="n">
-        <v>303.9918807365201</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D10" t="n">
-        <v>303.9918807365201</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
         <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1371.752739227661</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>1371.752739227661</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329314</v>
+        <v>1371.752739227661</v>
       </c>
       <c r="W10" t="n">
-        <v>638.3033838959707</v>
+        <v>1082.3355691907</v>
       </c>
       <c r="X10" t="n">
-        <v>410.3138329979533</v>
+        <v>854.3460182926831</v>
       </c>
       <c r="Y10" t="n">
-        <v>303.9918807365201</v>
+        <v>633.553439149153</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,52 +5036,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>599.4606235519261</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>452.5706760540157</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>285.3745767688957</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>143.6627456110938</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5519,19 +5519,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0505596597677</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,19 +6066,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,25 +6835,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,7 +6886,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7084,10 +7084,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,43 +7397,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7442,10 +7442,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>636.6680198981028</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>467.7318369701959</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1811.200273012738</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1556.515784806851</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1267.09861476989</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>1039.109063871873</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.3164847283425</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878338</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>121.4045343786555</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>78.63224759184038</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>257.4060502690252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.37549921168736</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6825818796756</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182169</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>31.91821458107486</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101226</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>111.1976478713723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>101.6825818796753</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>144.5956654067399</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>110.0033420516647</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,10 +25846,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>67.54000767002731</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>39.70888054695305</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983675.2426495894</v>
+        <v>983675.2426495893</v>
       </c>
     </row>
     <row r="3">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.986501903</v>
+        <v>335917.9865019028</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389272</v>
@@ -26329,31 +26329,31 @@
         <v>363215.9698605028</v>
       </c>
       <c r="H2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605025</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="K2" t="n">
+        <v>363215.9698605029</v>
+      </c>
+      <c r="L2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605027</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90558.97983407915</v>
+        <v>90558.9798340791</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26424,10 +26424,10 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719669</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26436,25 +26436,25 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719658</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
+        <v>7507.368461719709</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="M4" t="n">
-        <v>7507.368461719682</v>
-      </c>
       <c r="N4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.36846171963</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719625</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-962330.5493479403</v>
+        <v>-962516.9427364798</v>
       </c>
       <c r="C6" t="n">
-        <v>143417.1604523378</v>
+        <v>143417.1604523382</v>
       </c>
       <c r="D6" t="n">
-        <v>143417.1604523386</v>
+        <v>143417.1604523382</v>
       </c>
       <c r="E6" t="n">
-        <v>-252899.3700496701</v>
+        <v>-252934.1079751053</v>
       </c>
       <c r="F6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="G6" t="n">
-        <v>254586.0715748761</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="H6" t="n">
-        <v>254586.0715748757</v>
+        <v>254551.33364944</v>
       </c>
       <c r="I6" t="n">
-        <v>254586.0715748756</v>
+        <v>254551.3336494405</v>
       </c>
       <c r="J6" t="n">
-        <v>86980.89376489345</v>
+        <v>86946.15583945758</v>
       </c>
       <c r="K6" t="n">
-        <v>254586.0715748761</v>
+        <v>254551.3336494404</v>
       </c>
       <c r="L6" t="n">
-        <v>254586.0715748758</v>
+        <v>254551.3336494402</v>
       </c>
       <c r="M6" t="n">
-        <v>121978.7778459491</v>
+        <v>121944.0399205135</v>
       </c>
       <c r="N6" t="n">
-        <v>254586.0715748759</v>
+        <v>254551.3336494399</v>
       </c>
       <c r="O6" t="n">
-        <v>254586.0715748759</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="P6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494403</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,25 +26975,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.90106997731374</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>249.1200108782945</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>143.8283435344856</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>153.1566210837044</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>22.41538501686853</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>62.80393378225961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>81.06138152182258</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>170.1097001710999</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>138.872311633761</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>208.0633752771778</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>153.3647093205812</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.3259206132759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,13 +28324,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.283553236494706e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
         <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,22 +31361,22 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405676</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31437,19 +31437,19 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
         <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
         <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
         <v>264.0341136849628</v>
@@ -31461,22 +31461,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
         <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202792</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>411.6868389156661</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
         <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313188</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35109,10 +35109,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
